--- a/data/trans_bre/P21D_4_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.02846893868461548</v>
+        <v>-0.02846893868461552</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.1243742176748257</v>
+        <v>-0.1243742176748259</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7164144057852019</v>
+        <v>-0.7174841528051352</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5455602033040372</v>
+        <v>0.4060777965091504</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8865053759915688</v>
+        <v>0.8865053759915689</v>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4113238984348417</v>
+        <v>0.3581760672952351</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.820240207142505</v>
+        <v>1.747569663401029</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -641,7 +641,7 @@
         <v>0.2228001381495699</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.8434701343434349</v>
+        <v>0.8434701343434352</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.533792488316023</v>
+        <v>-0.5302258401260289</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9951578412069491</v>
+        <v>0.9826778943410552</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -683,7 +683,7 @@
         <v>1.097616786305502</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.748625198923973</v>
+        <v>2.748625198923974</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0729262102423736</v>
+        <v>0.09102795427648702</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7232034111561124</v>
+        <v>-0.4296565368220777</v>
       </c>
     </row>
     <row r="15">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.465820384853457</v>
+        <v>2.371626322585112</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2313921481035412</v>
+        <v>0.2280318001647114</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2758383631366215</v>
+        <v>0.09841212129459884</v>
       </c>
     </row>
     <row r="18">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.102027450482243</v>
+        <v>1.106975108544344</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16.70289805375123</v>
+        <v>12.40555339784844</v>
       </c>
     </row>
     <row r="19">
